--- a/FES05N.xlsx
+++ b/FES05N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t/>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>20001119</t>
+  </si>
+  <si>
+    <t>SOSRO TEH KOTAK 4+2S</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -532,6 +541,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/FES05N.xlsx
+++ b/FES05N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>20141364</t>
+  </si>
+  <si>
+    <t>SARIWANGI TWIN 2X30S</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -561,6 +573,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
